--- a/static/Datasets/Standard_Scores/Standard_Score_Conversions.xlsx
+++ b/static/Datasets/Standard_Scores/Standard_Score_Conversions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmyszkowski/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmyszkowski/Documents/GitHub/personal-website-2022/static/Datasets/Standard_Scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E9F1C9-1723-9742-83DD-54657561ADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C34224-E05D-0A4F-8011-9CBFD46C1CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21560" xr2:uid="{6B7937FC-4FE7-6A44-935C-F99D5EC29F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,6 +182,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -190,10 +194,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +512,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,16 +524,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -541,31 +541,25 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="str">
         <f>IF(COUNTBLANK(B2:D2)=0,(B2-C2)/D2, "(fill above)")</f>
-        <v>2</v>
+        <v>(fill above)</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -578,9 +572,9 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3" t="str">
         <f>IF(COUNTBLANK(B$2:D$2)=0,B$4*D5+C5,"(fill above)")</f>
-        <v>70</v>
+        <v>(fill above)</v>
       </c>
       <c r="C5" s="3">
         <v>50</v>
@@ -593,9 +587,9 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
-        <f t="shared" ref="B6:B8" si="0">IF(COUNTBLANK(B$2:D$2)=0,B$4*D6+C6,"(fill above)")</f>
-        <v>130</v>
+      <c r="B6" s="3" t="str">
+        <f t="shared" ref="B6:B7" si="0">IF(COUNTBLANK(B$2:D$2)=0,B$4*D6+C6,"(fill above)")</f>
+        <v>(fill above)</v>
       </c>
       <c r="C6" s="3">
         <v>100</v>
@@ -608,9 +602,9 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>(fill above)</v>
       </c>
       <c r="C7" s="3">
         <v>10</v>
@@ -623,9 +617,9 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="3" t="str">
         <f>IF(COUNTBLANK(B2:D2)+COUNTBLANK(C8:D8)=0,B$4*D8+C8,"(fill above and right)")</f>
-        <v>700</v>
+        <v>(fill above and right)</v>
       </c>
       <c r="C8" s="3">
         <v>500</v>

--- a/static/Datasets/Standard_Scores/Standard_Score_Conversions.xlsx
+++ b/static/Datasets/Standard_Scores/Standard_Score_Conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmyszkowski/Documents/GitHub/personal-website-2022/static/Datasets/Standard_Scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C34224-E05D-0A4F-8011-9CBFD46C1CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1DD479-BDBF-984E-A42A-F510C33F4EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21560" xr2:uid="{6B7937FC-4FE7-6A44-935C-F99D5EC29F35}"/>
   </bookViews>
@@ -621,12 +621,8 @@
         <f>IF(COUNTBLANK(B2:D2)+COUNTBLANK(C8:D8)=0,B$4*D8+C8,"(fill above and right)")</f>
         <v>(fill above and right)</v>
       </c>
-      <c r="C8" s="3">
-        <v>500</v>
-      </c>
-      <c r="D8" s="3">
-        <v>100</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
